--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17460" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17610" windowHeight="3630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q14"/>
+  <oleSize ref="A1:R20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>sruthi</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Automation</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>prasadh</t>
   </si>
   <si>
@@ -73,16 +70,37 @@
     <t>sruthi18</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>ABC_PARK</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
 </sst>
 </file>
@@ -118,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -434,7 +453,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -442,7 +461,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -450,7 +469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -458,7 +477,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -466,7 +485,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -474,7 +493,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -482,7 +501,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -490,7 +509,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -505,82 +524,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17610" windowHeight="3630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="17610" windowHeight="3630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
